--- a/1) OfficeSupplies.xlsx
+++ b/1) OfficeSupplies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10a 1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10a 1\Documents\GitHub\February\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="OfficeSupplies" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="63">
   <si>
     <t>OrderDate</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Каква е тенденцията в оборота - положителна или отрицателна?</t>
   </si>
   <si>
-    <t>Какво бихте посъветвали собственика на този бизнес, за да увелици броя продажби? А за да увелици оборота си?</t>
-  </si>
-  <si>
     <t>Бихте ли инвестирали в този бизнес? Защо?</t>
   </si>
   <si>
@@ -180,6 +177,42 @@
   </si>
   <si>
     <t>101 септември</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sqq</t>
+  </si>
+  <si>
+    <t>s2e2</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sxa</t>
+  </si>
+  <si>
+    <t>sda</t>
   </si>
 </sst>
 </file>
@@ -1924,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2834,7 @@
         <v>155</v>
       </c>
       <c r="K36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,9 +2844,6 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +2862,7 @@
         <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2863,7 +2893,7 @@
         <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2924,7 @@
         <v>113</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2925,7 +2955,7 @@
         <v>154</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2956,7 +2986,7 @@
         <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2987,7 +3017,7 @@
         <v>263</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,7 +3048,7 @@
         <v>122</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3049,7 +3079,7 @@
         <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3062,11 +3092,11 @@
         <v>873.2700000000001</v>
       </c>
       <c r="J45">
-        <f t="shared" ref="J40:J47" si="1">SUM(E37:E39)</f>
+        <f t="shared" ref="J45" si="1">SUM(E37:E39)</f>
         <v>239</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3079,7 +3109,7 @@
         <v>101</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3088,7 +3118,7 @@
         <v>227</v>
       </c>
       <c r="K47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3101,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,13 +3144,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3128,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6">
         <f>OfficeSupplies!$E$46</f>
@@ -3140,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6">
         <f>OfficeSupplies!$J$2</f>
@@ -3155,7 +3185,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3175,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3183,10 +3213,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3203,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -3211,9 +3241,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3227,10 +3255,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,9 +3493,6 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
@@ -3531,9 +3556,6 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
-        <v>64</v>
-      </c>
       <c r="F15">
         <v>8.99</v>
       </c>
@@ -3562,17 +3584,11 @@
       <c r="A17" s="1">
         <v>41951</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
       </c>
       <c r="F17">
         <v>19.989999999999998</v>
@@ -3878,7 +3894,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42087</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42095</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42104</v>
       </c>
@@ -3938,7 +3954,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42112</v>
       </c>
@@ -3958,7 +3974,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42121</v>
       </c>
@@ -3978,7 +3994,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42129</v>
       </c>
@@ -3998,7 +4014,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42138</v>
       </c>
@@ -4018,7 +4034,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42146</v>
       </c>
@@ -4038,7 +4054,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42155</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42163</v>
       </c>
@@ -4078,7 +4094,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42172</v>
       </c>
@@ -4098,7 +4114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42180</v>
       </c>
@@ -4116,6 +4132,61 @@
       </c>
       <c r="F44">
         <v>4.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
